--- a/Excel_test_1/test1.xlsx
+++ b/Excel_test_1/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktmth\source\repos\codinghajo3\Excel_in_Taemin\ExcelFileForTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktmth\source\repos\codinghajo3\Excel_in_Taemin\Excel_test_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0674EA-EC6A-4D3E-BEEC-BC8B17160956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BE71CE-D3B0-4BF9-AB23-B67754FE4A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{71B0D093-C1BC-4B63-83FA-A01108B6F48A}"/>
+    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{71B0D093-C1BC-4B63-83FA-A01108B6F48A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>김태민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="000\-0000\-0000"/>
+    <numFmt numFmtId="176" formatCode="000\-0000\-0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF17DA-DDBC-4DE9-9ACF-13404B605FBC}">
-  <dimension ref="B1:H2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,7 +472,10 @@
     <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +498,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
